--- a/Productos.xlsx
+++ b/Productos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Escritorio\ClasesProgramacion\Excell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Escritorio\LenguajesProgramacion\Excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5BB39F-2E5C-4C88-9FED-07E4E82D54DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2BBC19-3646-4F0A-A934-661C182EAA02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15885" yWindow="0" windowWidth="14490" windowHeight="16065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11835" yWindow="90" windowWidth="17055" windowHeight="16065" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCTOS" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>andres correa weitzel</author>
+  </authors>
+  <commentList>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{C9466EFA-3BC5-46D3-B7FA-FBE73DE2D73E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>andres correa weitzel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Si cambio el pais en el cual quiero la suma y la media automaticamente se cambian los mismos
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="106">
   <si>
     <t>CÓDIGO ARTÍCULO</t>
   </si>
@@ -335,13 +370,25 @@
   </si>
   <si>
     <t>PALAS DE PING PONG</t>
+  </si>
+  <si>
+    <t>España</t>
+  </si>
+  <si>
+    <t>SUMA DE PRECIO POR PAIS</t>
+  </si>
+  <si>
+    <t>MEDIA DE PRECIO POR PAIS</t>
+  </si>
+  <si>
+    <t>UTILIZAMOS FUNCIONES DE BASE DE DATOS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,8 +404,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,8 +446,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -389,11 +470,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -415,6 +511,16 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -754,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,9 +875,12 @@
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -794,7 +903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -816,8 +925,11 @@
       <c r="G2" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J2" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -839,8 +951,9 @@
       <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -862,8 +975,9 @@
       <c r="G4" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -885,8 +999,9 @@
       <c r="G5" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
@@ -908,8 +1023,9 @@
       <c r="G6" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -931,8 +1047,9 @@
       <c r="G7" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
@@ -954,8 +1071,9 @@
       <c r="G8" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>31</v>
       </c>
@@ -977,8 +1095,9 @@
       <c r="G9" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>33</v>
       </c>
@@ -1000,8 +1119,9 @@
       <c r="G10" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>35</v>
       </c>
@@ -1023,8 +1143,9 @@
       <c r="G11" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>39</v>
       </c>
@@ -1046,8 +1167,9 @@
       <c r="G12" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>41</v>
       </c>
@@ -1069,8 +1191,9 @@
       <c r="G13" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>43</v>
       </c>
@@ -1093,7 +1216,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>45</v>
       </c>
@@ -1116,7 +1239,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>47</v>
       </c>
@@ -1719,17 +1842,23 @@
       <c r="E42" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="J11:J13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59165B87-C629-485C-A4F7-E3500EBCF2CA}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59165B87-C629-485C-A4F7-E3500EBCF2CA}">
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1737,10 +1866,92 @@
     <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.85546875" customWidth="1"/>
+    <col min="10" max="10" width="36.5703125" customWidth="1"/>
+    <col min="11" max="11" width="49.28515625" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2">
+        <f>DSUM(PRODUCTOS!A1:G41,PRODUCTOS!D1,A1:G2)</f>
+        <v>512.41769999999997</v>
+      </c>
+      <c r="I2">
+        <f>DAVERAGE(PRODUCTOS!B1:G41,PRODUCTOS!D1,A1:G2)</f>
+        <v>46.58342727272727</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K3" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K5" s="11"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K11" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K3:K11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>